--- a/dispositivos_ejemplo.xlsx
+++ b/dispositivos_ejemplo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janet\OneDrive\Documentos\Pragramcion de redes\GIT LEARNING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9bba10fbad86b510/Documentos/UNI/TRABAJOS/Programación de Redes/GIT LEARNING/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D6AC2-CB48-41F0-B489-EE56930361C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{418D6AC2-CB48-41F0-B489-EE56930361C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3CA7D6-9CFE-4584-B38C-9F79C149DF75}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t>RouterPrueba</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>cisco123</t>
+  </si>
+  <si>
+    <t>lab.local</t>
+  </si>
+  <si>
+    <t>CISCO2901/K9</t>
+  </si>
+  <si>
+    <t>FTX153782SQ</t>
+  </si>
+  <si>
     <t>modelo</t>
   </si>
   <si>
@@ -46,25 +64,7 @@
     <t>dominio</t>
   </si>
   <si>
-    <t>COM8</t>
-  </si>
-  <si>
-    <t>RouterPrueba</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>cisco123</t>
-  </si>
-  <si>
-    <t>lab.local</t>
-  </si>
-  <si>
-    <t>CISCO2901/K9</t>
-  </si>
-  <si>
-    <t>FTX153782SQ</t>
+    <t>COM7</t>
   </si>
 </sst>
 </file>
@@ -152,6 +152,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,61 +448,61 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>9600</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
